--- a/excel/templates/client_order.xlsx
+++ b/excel/templates/client_order.xlsx
@@ -316,10 +316,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
-    <numFmt numFmtId="179" formatCode="&quot;¥&quot;#,##0&quot;.-&quot;;&quot;¥&quot;\-#,##0&quot;.-&quot;"/>
-    <numFmt numFmtId="180" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="192" formatCode="&quot;（見積書　No.&quot;@&quot;）&quot;"/>
-    <numFmt numFmtId="193" formatCode="@&quot;　御中&quot;"/>
+    <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0&quot;.-&quot;;&quot;¥&quot;\-#,##0&quot;.-&quot;"/>
+    <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="178" formatCode="&quot;（見積書　No.&quot;@&quot;）&quot;"/>
+    <numFmt numFmtId="179" formatCode="@&quot;　御中&quot;"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -571,7 +571,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -616,7 +616,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -656,7 +656,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="193" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -674,6 +674,93 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -692,128 +779,47 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="192" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="192" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1298,16 +1304,16 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -1343,32 +1349,32 @@
     <row r="6" spans="1:12" ht="28.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="63" t="s">
+      <c r="F6" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
       <c r="I6" s="3"/>
       <c r="L6" s="19"/>
     </row>
     <row r="7" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="64" t="s">
+      <c r="F7" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
       <c r="I7" s="3"/>
       <c r="L7" s="19"/>
     </row>
     <row r="8" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="47"/>
+      <c r="G8" s="71"/>
       <c r="H8" s="28" t="s">
         <v>25</v>
       </c>
@@ -1427,50 +1433,50 @@
     </row>
     <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="21"/>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="67" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="70"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="49"/>
       <c r="I14" s="24"/>
     </row>
     <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="21"/>
-      <c r="B15" s="38"/>
+      <c r="B15" s="67"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="68"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="47"/>
       <c r="I15" s="24"/>
     </row>
     <row r="16" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="21"/>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="67" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="44"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="82"/>
       <c r="I16" s="24"/>
     </row>
     <row r="17" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="21"/>
-      <c r="B17" s="38"/>
+      <c r="B17" s="67"/>
       <c r="C17" s="31"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="46"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="84"/>
       <c r="I17" s="24"/>
     </row>
     <row r="18" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1479,11 +1485,11 @@
         <v>22</v>
       </c>
       <c r="C18" s="31"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="82"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="58"/>
       <c r="I18" s="24"/>
     </row>
     <row r="19" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1492,13 +1498,13 @@
         <v>20</v>
       </c>
       <c r="C19" s="32"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
       <c r="F19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G19" s="65"/>
-      <c r="H19" s="66"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="45"/>
       <c r="I19" s="24"/>
     </row>
     <row r="20" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1507,16 +1513,16 @@
         <v>1</v>
       </c>
       <c r="C20" s="33"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="51"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="62"/>
       <c r="I20" s="24"/>
     </row>
     <row r="21" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21"/>
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="63" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="12"/>
@@ -1526,13 +1532,13 @@
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="72"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="53"/>
       <c r="I21" s="24"/>
     </row>
     <row r="22" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="21"/>
-      <c r="B22" s="53"/>
+      <c r="B22" s="64"/>
       <c r="C22" s="33" t="s">
         <v>17</v>
       </c>
@@ -1541,10 +1547,10 @@
         <v>11</v>
       </c>
       <c r="F22" s="16"/>
-      <c r="G22" s="45" t="s">
+      <c r="G22" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="46"/>
+      <c r="H22" s="51"/>
       <c r="I22" s="24"/>
     </row>
     <row r="23" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1553,11 +1559,11 @@
         <v>9</v>
       </c>
       <c r="C23" s="34"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="56"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="74"/>
       <c r="I23" s="24"/>
     </row>
     <row r="24" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1566,11 +1572,11 @@
         <v>18</v>
       </c>
       <c r="C24" s="34"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="56"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="74"/>
       <c r="I24" s="24"/>
     </row>
     <row r="25" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1579,11 +1585,11 @@
         <v>13</v>
       </c>
       <c r="C25" s="34"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="56"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="74"/>
       <c r="I25" s="24"/>
     </row>
     <row r="26" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1592,11 +1598,11 @@
         <v>15</v>
       </c>
       <c r="C26" s="34"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="75"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="79"/>
       <c r="I26" s="24"/>
     </row>
     <row r="27" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1605,11 +1611,11 @@
         <v>14</v>
       </c>
       <c r="C27" s="34"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="75"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="79"/>
       <c r="I27" s="24"/>
     </row>
     <row r="28" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1618,11 +1624,11 @@
         <v>21</v>
       </c>
       <c r="C28" s="34"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="56"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="74"/>
       <c r="I28" s="24"/>
     </row>
     <row r="29" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1631,11 +1637,11 @@
         <v>8</v>
       </c>
       <c r="C29" s="34"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="77"/>
-      <c r="H29" s="78"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="56"/>
       <c r="I29" s="24"/>
     </row>
     <row r="30" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1644,35 +1650,35 @@
         <v>2</v>
       </c>
       <c r="C30" s="32"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="56"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="74"/>
       <c r="I30" s="24"/>
     </row>
     <row r="31" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
-      <c r="B31" s="57" t="s">
+      <c r="B31" s="36" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="24"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="60"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="39"/>
       <c r="I31" s="24"/>
     </row>
     <row r="32" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
-      <c r="B32" s="58"/>
+      <c r="B32" s="37"/>
       <c r="C32" s="31"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="62"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="41"/>
       <c r="I32" s="24"/>
     </row>
     <row r="33" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1688,6 +1694,18 @@
     <row r="34" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D14:F15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="D16:H17"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D24:H24"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="D31:H32"/>
     <mergeCell ref="F6:H6"/>
@@ -1704,18 +1722,6 @@
     <mergeCell ref="D29:H29"/>
     <mergeCell ref="D30:H30"/>
     <mergeCell ref="D18:H18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="D14:F15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D16:H17"/>
-    <mergeCell ref="F8:G8"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
